--- a/InfoProyecto/DataExcel/PropuestaModelado.xlsx
+++ b/InfoProyecto/DataExcel/PropuestaModelado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\InfoProyecto\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E81B9CB-7445-4BAB-B2D5-120403D40AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351726D-884C-4AE9-947D-D55A67EF9844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-60" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUERIMIENTOS" sheetId="1" state="hidden" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="168">
   <si>
     <t>¿Qué pasará cuando se intente agregar un nuevo valor?</t>
   </si>
@@ -528,13 +528,28 @@
   </si>
   <si>
     <t>Centro_Juvenil_PASPE</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>id_table_tables</t>
+  </si>
+  <si>
+    <t>Simular llenado de data en una pantalla de los indicadores con sus posibles atributos en funcion de totales, para realizar gráficas comparativas. Para el llenado de data haré uso del EndPoint "register". BACKEND</t>
+  </si>
+  <si>
+    <t>Con los resultados obtenidos, hacer uso de la librería que me permite realizar gráficos, se realizará un gráfico por cada indicador por ejemplo que porcentaje de jóvenes totales son agresores sexuales. Se realizarán gráficos también de indicadores con otros indicadores según su compatibilidad, por ejemplo con indicadores como capacidad de albergue y capacidad instalada. FRONTEND (movil)</t>
+  </si>
+  <si>
+    <t>PASOS A REALIZAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -605,6 +620,13 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -932,7 +954,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -957,38 +979,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -999,57 +991,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,25 +1003,7 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1146,68 +1072,191 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,6 +1272,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>96369</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>128368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E08F6959-046E-4564-8760-EF9117A0AD4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8747760" y="327660"/>
+          <a:ext cx="8021169" cy="5249008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1739,7 +1837,7 @@
   </sheetPr>
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="B45" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -1750,173 +1848,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="92"/>
     </row>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
     </row>
     <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="76" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="50"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="77"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
+      <c r="A5" s="82">
         <v>2</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="84" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="83"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="74">
         <v>3</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="86" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="86"/>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="86"/>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="39"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="88"/>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20">
+      <c r="A13" s="74">
         <v>1</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="97" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="97"/>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="97"/>
     </row>
     <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20">
+      <c r="A16" s="74">
         <v>2</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="96" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="52"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="96"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="96"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="74">
         <v>3</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="75" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="75"/>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="74">
         <v>4</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="75" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="75"/>
     </row>
     <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20">
+      <c r="A26" s="74">
         <v>5</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="75" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="75"/>
     </row>
     <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
     </row>
     <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
+      <c r="A30" s="14"/>
     </row>
     <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="28"/>
+      <c r="B33" s="94"/>
     </row>
     <row r="34" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
+      <c r="A34" s="95"/>
+      <c r="B34" s="95"/>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -1951,94 +2049,94 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="75" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="75"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="74"/>
+      <c r="B41" s="75"/>
     </row>
     <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="21"/>
+      <c r="B43" s="98"/>
     </row>
     <row r="44" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="17"/>
+      <c r="B44" s="91"/>
     </row>
     <row r="45" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="17"/>
+      <c r="B45" s="91"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="18"/>
+      <c r="B46" s="73"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="18"/>
+      <c r="B47" s="73"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="18"/>
+      <c r="B48" s="73"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="18"/>
+      <c r="B49" s="73"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="18"/>
+      <c r="B50" s="73"/>
     </row>
     <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="30"/>
+      <c r="B51" s="80"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
+      <c r="A52" s="81"/>
+      <c r="B52" s="81"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
+      <c r="A54" s="81"/>
+      <c r="B54" s="81"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
+      <c r="A55" s="81"/>
+      <c r="B55" s="81"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="81"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
@@ -2057,16 +2155,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A51:B56"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2076,17 +2172,19 @@
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2096,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BC279D-DC6D-4A6B-A5EF-3F44C18FCE4F}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I2" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G2" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2119,71 +2217,71 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111" t="s">
+      <c r="F2" s="102"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="111" t="s">
+      <c r="K2" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="111" t="s">
+      <c r="L2" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="99" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="111"/>
-      <c r="L4" s="111"/>
-      <c r="M4" s="111"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -2192,7 +2290,7 @@
       <c r="B5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -2201,18 +2299,18 @@
       <c r="E5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="113" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="114" t="s">
+      <c r="I5" s="70" t="s">
         <v>151</v>
       </c>
-      <c r="J5" s="115" t="s">
+      <c r="J5" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="K5" s="116" t="s">
+      <c r="K5" s="72" t="s">
         <v>140</v>
       </c>
       <c r="L5" s="1"/>
@@ -2225,25 +2323,25 @@
       <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="113" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="69" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="J6" s="115" t="s">
+      <c r="J6" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="K6" s="116" t="s">
+      <c r="K6" s="72" t="s">
         <v>152</v>
       </c>
       <c r="L6" s="1"/>
@@ -2256,21 +2354,21 @@
       <c r="B7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="113" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="69" t="s">
         <v>162</v>
       </c>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="116" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="72" t="s">
         <v>141</v>
       </c>
       <c r="L7" s="1"/>
@@ -2283,19 +2381,19 @@
       <c r="B8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="113" t="s">
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="116" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="72" t="s">
         <v>142</v>
       </c>
       <c r="L8" s="1"/>
@@ -2308,19 +2406,19 @@
       <c r="B9" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="113" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="116" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="72" t="s">
         <v>143</v>
       </c>
       <c r="L9" s="1"/>
@@ -2333,19 +2431,19 @@
       <c r="B10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="113" t="s">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="116" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="72" t="s">
         <v>153</v>
       </c>
       <c r="L10" s="1"/>
@@ -2358,17 +2456,17 @@
       <c r="B11" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="116" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="72" t="s">
         <v>154</v>
       </c>
       <c r="L11" s="1"/>
@@ -2381,17 +2479,17 @@
       <c r="B12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="116" t="s">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="72" t="s">
         <v>144</v>
       </c>
       <c r="L12" s="1"/>
@@ -2404,19 +2502,19 @@
       <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="116" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="72" t="s">
         <v>145</v>
       </c>
       <c r="L13" s="1"/>
@@ -2429,17 +2527,17 @@
       <c r="B14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="116" t="s">
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="72" t="s">
         <v>146</v>
       </c>
       <c r="L14" s="1"/>
@@ -2452,17 +2550,17 @@
       <c r="B15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="116" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="72" t="s">
         <v>147</v>
       </c>
       <c r="L15" s="1"/>
@@ -2475,17 +2573,17 @@
       <c r="B16" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="116" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="72" t="s">
         <v>148</v>
       </c>
       <c r="L16" s="1"/>
@@ -2498,17 +2596,17 @@
       <c r="B17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
@@ -2519,17 +2617,17 @@
       <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
@@ -2540,7 +2638,7 @@
       <c r="B19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -2549,12 +2647,12 @@
       <c r="E19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
@@ -2565,17 +2663,17 @@
       <c r="B20" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="19" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
@@ -2586,17 +2684,17 @@
       <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
@@ -2607,17 +2705,17 @@
       <c r="B22" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
@@ -2628,7 +2726,7 @@
       <c r="B23" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="C23" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="11" t="s">
@@ -2637,12 +2735,12 @@
       <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
@@ -2653,7 +2751,7 @@
       <c r="B24" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2662,12 +2760,12 @@
       <c r="E24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
@@ -2678,17 +2776,17 @@
       <c r="B25" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
@@ -2699,17 +2797,17 @@
       <c r="B26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="46" t="s">
+      <c r="C26" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
@@ -2720,19 +2818,19 @@
       <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
@@ -2743,17 +2841,17 @@
       <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -2764,17 +2862,17 @@
       <c r="B29" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="53"/>
-      <c r="K29" s="53"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
@@ -2785,17 +2883,17 @@
       <c r="B30" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
@@ -2806,19 +2904,19 @@
       <c r="B31" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
@@ -2829,17 +2927,17 @@
       <c r="B32" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="46" t="s">
+      <c r="C32" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="53"/>
-      <c r="K32" s="53"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
@@ -2850,17 +2948,17 @@
       <c r="B33" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="53"/>
-      <c r="K33" s="53"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
@@ -2871,17 +2969,17 @@
       <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="53"/>
-      <c r="K34" s="53"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
@@ -2892,17 +2990,17 @@
       <c r="B35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="46" t="s">
+      <c r="C35" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
@@ -2913,17 +3011,17 @@
       <c r="B36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
@@ -2934,17 +3032,17 @@
       <c r="B37" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="47" t="s">
+      <c r="C37" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
@@ -2955,17 +3053,17 @@
       <c r="B38" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="53"/>
-      <c r="K38" s="53"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
@@ -2976,17 +3074,17 @@
       <c r="B39" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="47" t="s">
+      <c r="C39" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="53"/>
-      <c r="K39" s="53"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
@@ -2997,17 +3095,17 @@
       <c r="B40" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="47" t="s">
+      <c r="C40" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
@@ -3018,17 +3116,17 @@
       <c r="B41" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
@@ -3039,17 +3137,17 @@
       <c r="B42" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="53"/>
-      <c r="I42" s="53"/>
-      <c r="J42" s="53"/>
-      <c r="K42" s="53"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
@@ -3060,17 +3158,17 @@
       <c r="B43" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="47" t="s">
+      <c r="C43" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
@@ -3081,17 +3179,17 @@
       <c r="B44" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
@@ -3102,17 +3200,17 @@
       <c r="B45" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="47" t="s">
+      <c r="C45" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
@@ -3123,17 +3221,17 @@
       <c r="B46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
     </row>
@@ -3144,17 +3242,17 @@
       <c r="B47" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
     </row>
@@ -3165,17 +3263,17 @@
       <c r="B48" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
     </row>
@@ -3186,17 +3284,17 @@
       <c r="B49" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
     </row>
@@ -3207,17 +3305,17 @@
       <c r="B50" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
     </row>
@@ -3228,17 +3326,17 @@
       <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
     </row>
@@ -3249,17 +3347,17 @@
       <c r="B52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C52" s="21" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
     </row>
@@ -3270,15 +3368,15 @@
       <c r="B53" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="16"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
@@ -3289,15 +3387,15 @@
       <c r="B54" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="26"/>
+      <c r="C54" s="16"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
@@ -3308,15 +3406,15 @@
       <c r="B55" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="26"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
     </row>
@@ -3327,15 +3425,15 @@
       <c r="B56" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C56" s="26"/>
+      <c r="C56" s="16"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
     </row>
@@ -3346,15 +3444,15 @@
       <c r="B57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C57" s="26"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
     </row>
@@ -3365,15 +3463,15 @@
       <c r="B58" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
     </row>
@@ -3384,15 +3482,15 @@
       <c r="B59" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C59" s="26"/>
+      <c r="C59" s="16"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
     </row>
@@ -3403,15 +3501,15 @@
       <c r="B60" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="25"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
     </row>
@@ -3422,15 +3520,15 @@
       <c r="B61" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="26"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
     </row>
@@ -3441,15 +3539,15 @@
       <c r="B62" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C62" s="26"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
     </row>
@@ -3460,15 +3558,15 @@
       <c r="B63" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C63" s="26"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="25"/>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-      <c r="K63" s="25"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="15"/>
     </row>
     <row r="64" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
@@ -3477,15 +3575,15 @@
       <c r="B64" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="26"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="25"/>
-      <c r="K64" s="25"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
     </row>
     <row r="65" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
@@ -3494,15 +3592,15 @@
       <c r="B65" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="25"/>
-      <c r="H65" s="25"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
     </row>
     <row r="66" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -3511,15 +3609,15 @@
       <c r="B66" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C66" s="26"/>
+      <c r="C66" s="16"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
     </row>
     <row r="67" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
@@ -3528,15 +3626,15 @@
       <c r="B67" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C67" s="26"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="25"/>
-      <c r="H67" s="25"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="25"/>
-      <c r="K67" s="25"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
     </row>
     <row r="68" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -3545,15 +3643,15 @@
       <c r="B68" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C68" s="26"/>
+      <c r="C68" s="16"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
-      <c r="K68" s="25"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15"/>
+      <c r="K68" s="15"/>
     </row>
     <row r="69" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
@@ -3562,15 +3660,15 @@
       <c r="B69" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C69" s="26"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="25"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="25"/>
-      <c r="K69" s="25"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="15"/>
     </row>
     <row r="70" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
@@ -3579,15 +3677,15 @@
       <c r="B70" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="16"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="25"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="25"/>
-      <c r="K70" s="25"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
     </row>
     <row r="71" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
@@ -3596,15 +3694,15 @@
       <c r="B71" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C71" s="26"/>
+      <c r="C71" s="16"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="25"/>
-      <c r="K71" s="25"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="15"/>
     </row>
     <row r="72" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
@@ -3613,15 +3711,15 @@
       <c r="B72" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C72" s="26"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="25"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
     </row>
     <row r="73" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
@@ -3630,15 +3728,15 @@
       <c r="B73" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C73" s="26"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="25"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="25"/>
-      <c r="K73" s="25"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="15"/>
     </row>
     <row r="74" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
@@ -3647,15 +3745,15 @@
       <c r="B74" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C74" s="26"/>
+      <c r="C74" s="16"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="25"/>
-      <c r="K74" s="25"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
     </row>
     <row r="75" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
@@ -3664,15 +3762,15 @@
       <c r="B75" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C75" s="26"/>
+      <c r="C75" s="16"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="25"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="25"/>
-      <c r="K75" s="25"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
     </row>
     <row r="76" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
@@ -3681,15 +3779,15 @@
       <c r="B76" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="26"/>
+      <c r="C76" s="16"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="25"/>
-      <c r="K76" s="25"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
     </row>
     <row r="77" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
@@ -3698,15 +3796,15 @@
       <c r="B77" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C77" s="26"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="25"/>
-      <c r="K77" s="25"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
     </row>
     <row r="78" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
@@ -3715,15 +3813,15 @@
       <c r="B78" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="26"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="25"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="25"/>
-      <c r="K78" s="25"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
     </row>
     <row r="79" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
@@ -3732,15 +3830,15 @@
       <c r="B79" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C79" s="26"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="25"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="25"/>
-      <c r="K79" s="25"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15"/>
+      <c r="K79" s="15"/>
     </row>
     <row r="80" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
@@ -3749,15 +3847,15 @@
       <c r="B80" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C80" s="26"/>
+      <c r="C80" s="16"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="25"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="25"/>
-      <c r="K80" s="25"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15"/>
+      <c r="K80" s="15"/>
     </row>
     <row r="81" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
@@ -3766,15 +3864,15 @@
       <c r="B81" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C81" s="26"/>
+      <c r="C81" s="16"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="25"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="25"/>
-      <c r="K81" s="25"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
     </row>
     <row r="82" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
@@ -3783,15 +3881,15 @@
       <c r="B82" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C82" s="26"/>
+      <c r="C82" s="16"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="25"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="25"/>
-      <c r="K82" s="25"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
     </row>
     <row r="83" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
@@ -3800,15 +3898,15 @@
       <c r="B83" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="26"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="25"/>
-      <c r="K83" s="25"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
     </row>
     <row r="84" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
@@ -3817,15 +3915,15 @@
       <c r="B84" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="26"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="25"/>
-      <c r="K84" s="25"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
     </row>
     <row r="85" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
@@ -3834,15 +3932,15 @@
       <c r="B85" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C85" s="26"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="25"/>
-      <c r="K85" s="25"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
     </row>
     <row r="86" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
@@ -3851,15 +3949,15 @@
       <c r="B86" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C86" s="26"/>
+      <c r="C86" s="16"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="25"/>
-      <c r="K86" s="25"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
     </row>
     <row r="87" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
@@ -3868,15 +3966,15 @@
       <c r="B87" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C87" s="26"/>
+      <c r="C87" s="16"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="25"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="25"/>
-      <c r="K87" s="25"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="15"/>
     </row>
     <row r="88" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
@@ -3885,15 +3983,15 @@
       <c r="B88" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C88" s="26"/>
+      <c r="C88" s="16"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="25"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="25"/>
-      <c r="K88" s="25"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
     </row>
     <row r="89" spans="1:11" ht="18" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
@@ -3902,15 +4000,15 @@
       <c r="B89" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C89" s="27"/>
+      <c r="C89" s="17"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="25"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="25"/>
-      <c r="K89" s="25"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="5"/>
@@ -3960,645 +4058,645 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="14"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="59" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="60" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="70" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="14"/>
+      <c r="H3" s="12"/>
       <c r="I3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="14"/>
+      <c r="J3" s="12"/>
       <c r="K3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
     </row>
     <row r="4" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="58" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="14"/>
+      <c r="H4" s="12"/>
       <c r="I4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="14"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="71" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="72" t="s">
+      <c r="H6" s="12"/>
+      <c r="I6" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="14"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="14"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="14"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="12"/>
       <c r="I9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="14"/>
+      <c r="J9" s="12"/>
       <c r="K9" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="12"/>
       <c r="K10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="59" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="27" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
       <c r="M12" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="68" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="14"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="L16" s="14"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="61" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="63" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="66" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="H17" s="14"/>
-      <c r="I17" s="69" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="67" t="s">
+      <c r="J17" s="12"/>
+      <c r="K17" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="10" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="73" t="s">
+      <c r="J18" s="12"/>
+      <c r="K18" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="L18" s="14"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="62" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="64" t="s">
+      <c r="G19" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="12"/>
       <c r="K19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="14"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="65" t="s">
+      <c r="F20" s="12"/>
+      <c r="G20" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="J20" s="14"/>
+      <c r="J20" s="12"/>
       <c r="K20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
     </row>
     <row r="21" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="14"/>
+      <c r="F21" s="12"/>
       <c r="G21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J21" s="14"/>
+      <c r="J21" s="12"/>
       <c r="K21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
     </row>
     <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="14"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="14"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
     </row>
     <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="J23" s="14"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="12"/>
       <c r="G24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
     </row>
     <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="14"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="14"/>
+      <c r="F25" s="12"/>
       <c r="G25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
     </row>
     <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
     </row>
     <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4609,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20A379E-E6A5-40FC-9C4F-5853DE135101}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A23" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4619,45 +4717,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="102"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="115"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -4680,877 +4778,877 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="A8" s="80" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="77" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="75" t="s">
+      <c r="F8" s="13"/>
+      <c r="G8" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="87" t="s">
+      <c r="H8" s="13"/>
+      <c r="I8" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="99" t="s">
+      <c r="J8" s="13"/>
+      <c r="K8" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="L8" s="15"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="15"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="15"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L9" s="15"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="98" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="78" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="79" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J10" s="15"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="15"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="15"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="15"/>
+      <c r="L11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="15"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="15"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="13"/>
       <c r="I12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="15"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="15"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="15"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="15"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="15"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="13"/>
       <c r="I14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="15"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="15"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="15"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="15"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="15"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="15"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="15"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="15"/>
+      <c r="L16" s="13"/>
     </row>
     <row r="17" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="96" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="96" t="s">
+      <c r="D17" s="13"/>
+      <c r="E17" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="108" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="106" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="96" t="s">
+      <c r="J17" s="13"/>
+      <c r="K17" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="L17" s="15"/>
+      <c r="L17" s="13"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="97" t="s">
+      <c r="B18" s="13"/>
+      <c r="C18" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="97" t="s">
+      <c r="D18" s="13"/>
+      <c r="E18" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="97" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="107" t="s">
         <v>132</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="105" t="s">
+      <c r="H18" s="13"/>
+      <c r="I18" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="103" t="s">
+      <c r="J18" s="13"/>
+      <c r="K18" s="111" t="s">
         <v>127</v>
       </c>
-      <c r="L18" s="15"/>
+      <c r="L18" s="13"/>
     </row>
     <row r="19" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="103"/>
-      <c r="L19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="97"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="97"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="97"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
+      <c r="A24" s="107"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="97"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
+      <c r="A25" s="107"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="97"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
+      <c r="A26" s="107"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
     </row>
     <row r="27" spans="1:12" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15" t="s">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15" t="s">
+      <c r="F27" s="13"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
     </row>
     <row r="28" spans="1:12" ht="23.4" x14ac:dyDescent="0.35">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="84" t="s">
+      <c r="B28" s="13"/>
+      <c r="C28" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="82" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="89" t="s">
+      <c r="F28" s="13"/>
+      <c r="G28" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="90" t="s">
+      <c r="H28" s="13"/>
+      <c r="I28" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
     </row>
     <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="15"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="13"/>
       <c r="E29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F29" s="15"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="13"/>
       <c r="I29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
     </row>
     <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="83" t="s">
+      <c r="A30" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="15"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="86" t="s">
+      <c r="D30" s="13"/>
+      <c r="E30" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="109" t="s">
+      <c r="F30" s="13"/>
+      <c r="G30" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="79" t="s">
+      <c r="H30" s="13"/>
+      <c r="I30" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
     </row>
     <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="81" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="81" t="s">
-        <v>94</v>
-      </c>
-      <c r="H31" s="15"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="H31" s="13"/>
       <c r="I31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F32" s="15"/>
-      <c r="G32" s="88" t="s">
+      <c r="F32" s="13"/>
+      <c r="G32" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="13"/>
       <c r="E33" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="13"/>
       <c r="I33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="15"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="13"/>
       <c r="I34" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="15"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
     </row>
     <row r="36" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="13"/>
       <c r="E36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H36" s="15"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
     </row>
     <row r="37" spans="1:12" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="96" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="13"/>
       <c r="E37" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="106" t="s">
+      <c r="H37" s="13"/>
+      <c r="I37" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A38" s="106" t="s">
+      <c r="A38" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="97" t="s">
+      <c r="B38" s="13"/>
+      <c r="C38" s="107" t="s">
         <v>131</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="15"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="97" t="s">
+      <c r="H38" s="13"/>
+      <c r="I38" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="107"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="96" t="s">
+      <c r="F39" s="13"/>
+      <c r="G39" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="107"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="97"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="96" t="s">
+      <c r="A40" s="107"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="15"/>
-      <c r="G40" s="105" t="s">
+      <c r="F40" s="13"/>
+      <c r="G40" s="109" t="s">
         <v>136</v>
       </c>
-      <c r="H40" s="15"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="107"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="97"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="107" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="104"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="107"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="E42" s="107"/>
-      <c r="G42" s="104"/>
-      <c r="I42" s="97"/>
+      <c r="A42" s="107"/>
+      <c r="C42" s="107"/>
+      <c r="E42" s="108"/>
+      <c r="G42" s="110"/>
+      <c r="I42" s="107"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="E43" s="107"/>
-      <c r="G43" s="104"/>
-      <c r="I43" s="97"/>
+      <c r="A43" s="107"/>
+      <c r="C43" s="107"/>
+      <c r="E43" s="108"/>
+      <c r="G43" s="110"/>
+      <c r="I43" s="107"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="E44" s="107"/>
-      <c r="G44" s="104"/>
-      <c r="I44" s="97"/>
+      <c r="A44" s="107"/>
+      <c r="C44" s="107"/>
+      <c r="E44" s="108"/>
+      <c r="G44" s="110"/>
+      <c r="I44" s="107"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
-      <c r="E45" s="107"/>
-      <c r="G45" s="104"/>
-      <c r="I45" s="97"/>
+      <c r="A45" s="107"/>
+      <c r="E45" s="108"/>
+      <c r="G45" s="110"/>
+      <c r="I45" s="107"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="97"/>
-      <c r="E46" s="107"/>
-      <c r="G46" s="104"/>
-      <c r="I46" s="97"/>
+      <c r="A46" s="107"/>
+      <c r="E46" s="108"/>
+      <c r="G46" s="110"/>
+      <c r="I46" s="107"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="97"/>
-      <c r="E47" s="107"/>
-      <c r="G47" s="104"/>
-      <c r="I47" s="97"/>
+      <c r="A47" s="107"/>
+      <c r="E47" s="108"/>
+      <c r="G47" s="110"/>
+      <c r="I47" s="107"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="97"/>
-      <c r="E48" s="107"/>
-      <c r="G48" s="104"/>
+      <c r="A48" s="107"/>
+      <c r="E48" s="108"/>
+      <c r="G48" s="110"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="97"/>
-      <c r="E49" s="107"/>
-      <c r="G49" s="104"/>
+      <c r="A49" s="107"/>
+      <c r="E49" s="108"/>
+      <c r="G49" s="110"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="E50" s="107"/>
-      <c r="G50" s="104"/>
+      <c r="A50" s="107"/>
+      <c r="E50" s="108"/>
+      <c r="G50" s="110"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="97"/>
-      <c r="E51" s="107"/>
-      <c r="G51" s="104"/>
+      <c r="A51" s="107"/>
+      <c r="E51" s="108"/>
+      <c r="G51" s="110"/>
     </row>
     <row r="52" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="97"/>
-      <c r="E52" s="107"/>
-      <c r="G52" s="104"/>
+      <c r="A52" s="107"/>
+      <c r="E52" s="108"/>
+      <c r="G52" s="110"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="97"/>
-      <c r="E53" s="107"/>
-      <c r="G53" s="104"/>
+      <c r="A53" s="107"/>
+      <c r="E53" s="108"/>
+      <c r="G53" s="110"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="97"/>
-      <c r="E54" s="107"/>
-      <c r="G54" s="104"/>
+      <c r="A54" s="107"/>
+      <c r="E54" s="108"/>
+      <c r="G54" s="110"/>
     </row>
     <row r="55" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="97"/>
-      <c r="E55" s="107"/>
-      <c r="G55" s="104"/>
+      <c r="A55" s="107"/>
+      <c r="E55" s="108"/>
+      <c r="G55" s="110"/>
     </row>
     <row r="56" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="97"/>
-      <c r="E56" s="107"/>
-      <c r="G56" s="104"/>
+      <c r="A56" s="107"/>
+      <c r="E56" s="108"/>
+      <c r="G56" s="110"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="97"/>
-      <c r="E57" s="107"/>
-      <c r="G57" s="104"/>
+      <c r="A57" s="107"/>
+      <c r="E57" s="108"/>
+      <c r="G57" s="110"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E58" s="107"/>
-      <c r="G58" s="104"/>
+      <c r="E58" s="108"/>
+      <c r="G58" s="110"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E59" s="107"/>
-      <c r="G59" s="104"/>
+      <c r="E59" s="108"/>
+      <c r="G59" s="110"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E60" s="107"/>
+      <c r="E60" s="108"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E61" s="107"/>
+      <c r="E61" s="108"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E62" s="107"/>
+      <c r="E62" s="108"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E63" s="107"/>
+      <c r="E63" s="108"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E64" s="107"/>
+      <c r="E64" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="I38:I47"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G25"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A39:A57"/>
     <mergeCell ref="E41:E64"/>
     <mergeCell ref="G40:G59"/>
     <mergeCell ref="K18:K21"/>
     <mergeCell ref="C38:C44"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="I38:I47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5558,136 +5656,176 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FC658-9ACC-4FE3-BEB4-06B30703A0EA}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" customWidth="1"/>
     <col min="2" max="2" width="104.44140625" customWidth="1"/>
+    <col min="16" max="16" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+    <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="91"/>
-    </row>
-    <row r="2" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75">
+      <c r="B1" s="116"/>
+    </row>
+    <row r="2" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="75">
+      <c r="O2" s="124" t="s">
+        <v>167</v>
+      </c>
+      <c r="P2" s="125"/>
+    </row>
+    <row r="3" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="43">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="59" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="75">
+      <c r="O3" s="120">
+        <v>1</v>
+      </c>
+      <c r="P3" s="117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43">
         <v>3</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="59" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75">
+      <c r="O4" s="120"/>
+      <c r="P4" s="117"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="59" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75">
+      <c r="O5" s="121">
+        <v>2</v>
+      </c>
+      <c r="P5" s="118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="43">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="59" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75">
+      <c r="O6" s="122"/>
+      <c r="P6" s="119"/>
+    </row>
+    <row r="7" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="43">
         <v>6</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="59" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="75">
+      <c r="O7" s="123">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="43">
         <v>7</v>
       </c>
-      <c r="B8" s="93"/>
-    </row>
-    <row r="9" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="75">
+      <c r="B8" s="60"/>
+      <c r="O8" s="123">
+        <v>4</v>
+      </c>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
         <v>8</v>
       </c>
-      <c r="B9" s="93"/>
-    </row>
-    <row r="10" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75">
+      <c r="B9" s="60"/>
+      <c r="O9" s="123">
+        <v>5</v>
+      </c>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43">
         <v>9</v>
       </c>
-      <c r="B10" s="93"/>
-    </row>
-    <row r="11" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75">
+      <c r="B10" s="60"/>
+    </row>
+    <row r="11" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
         <v>10</v>
       </c>
-      <c r="B11" s="93"/>
-    </row>
-    <row r="12" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75">
+      <c r="B11" s="60"/>
+    </row>
+    <row r="12" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
         <v>11</v>
       </c>
-      <c r="B12" s="93"/>
-    </row>
-    <row r="13" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75">
+      <c r="B12" s="60"/>
+    </row>
+    <row r="13" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
         <v>12</v>
       </c>
-      <c r="B13" s="93"/>
-    </row>
-    <row r="14" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="75">
+      <c r="B13" s="60"/>
+    </row>
+    <row r="14" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
         <v>13</v>
       </c>
-      <c r="B14" s="93"/>
-    </row>
-    <row r="15" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="75">
+      <c r="B14" s="60"/>
+    </row>
+    <row r="15" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
         <v>14</v>
       </c>
-      <c r="B15" s="93"/>
-    </row>
-    <row r="16" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75">
+      <c r="B15" s="60"/>
+    </row>
+    <row r="16" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
         <v>15</v>
       </c>
-      <c r="B16" s="93"/>
+      <c r="B16" s="60"/>
     </row>
     <row r="17" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75">
+      <c r="A17" s="43">
         <v>16</v>
       </c>
-      <c r="B17" s="93"/>
+      <c r="B17" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/InfoProyecto/DataExcel/PropuestaModelado.xlsx
+++ b/InfoProyecto/DataExcel/PropuestaModelado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\InfoProyecto\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351726D-884C-4AE9-947D-D55A67EF9844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F836CD-8A87-45C3-8356-5AEB01A98DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUERIMIENTOS" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1098,13 +1098,73 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1119,63 +1179,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1200,9 +1203,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1215,40 +1230,25 @@
     <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1837,7 +1837,7 @@
   </sheetPr>
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -1848,156 +1848,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="92"/>
+      <c r="B1" s="74"/>
     </row>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
     </row>
     <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="78">
+      <c r="A3" s="98">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="96" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="79"/>
-      <c r="B4" s="77"/>
+      <c r="A4" s="99"/>
+      <c r="B4" s="97"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+      <c r="A5" s="85">
         <v>2</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="87" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="85"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="88"/>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74">
+      <c r="A7" s="82">
         <v>3</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="89" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="89"/>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="91"/>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="90"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="93"/>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="74">
+      <c r="A13" s="82">
         <v>1</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="79" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="79"/>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="79"/>
     </row>
     <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="74">
+      <c r="A16" s="82">
         <v>2</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="78" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="78"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="78"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74">
+      <c r="A19" s="82">
         <v>3</v>
       </c>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="81" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="81"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="81"/>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="81"/>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="74">
+      <c r="A23" s="82">
         <v>4</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="81" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="81"/>
     </row>
     <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="75"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="81"/>
     </row>
     <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="74">
+      <c r="A26" s="82">
         <v>5</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="81" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="81"/>
     </row>
     <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="74"/>
-      <c r="B28" s="75"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="81"/>
     </row>
     <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="75"/>
+      <c r="A29" s="82"/>
+      <c r="B29" s="81"/>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
@@ -2007,14 +2007,14 @@
       <c r="B31" s="15"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="94" t="s">
+      <c r="A33" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="94"/>
+      <c r="B33" s="76"/>
     </row>
     <row r="34" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95"/>
-      <c r="B34" s="95"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2049,94 +2049,94 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="75" t="s">
+      <c r="B39" s="81" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="75"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="81"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="75"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="81"/>
     </row>
     <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="98"/>
+      <c r="B43" s="80"/>
     </row>
     <row r="44" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="91"/>
+      <c r="B44" s="95"/>
     </row>
     <row r="45" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="91" t="s">
+      <c r="A45" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="91"/>
+      <c r="B45" s="95"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="73" t="s">
+      <c r="A46" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="73"/>
+      <c r="B46" s="94"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="73" t="s">
+      <c r="A47" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="73"/>
+      <c r="B47" s="94"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="73" t="s">
+      <c r="A48" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="73"/>
+      <c r="B48" s="94"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="73"/>
+      <c r="B49" s="94"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="73" t="s">
+      <c r="A50" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="73"/>
+      <c r="B50" s="94"/>
     </row>
     <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="80" t="s">
+      <c r="A51" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="80"/>
+      <c r="B51" s="83"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="81"/>
-      <c r="B52" s="81"/>
+      <c r="A52" s="84"/>
+      <c r="B52" s="84"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="81"/>
-      <c r="B53" s="81"/>
+      <c r="A53" s="84"/>
+      <c r="B53" s="84"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="81"/>
-      <c r="B54" s="81"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="84"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="81"/>
-      <c r="B55" s="81"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="81"/>
-      <c r="B56" s="81"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="84"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
@@ -2155,14 +2155,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="A51:B56"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2179,12 +2177,14 @@
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A16:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2194,8 +2194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BC279D-DC6D-4A6B-A5EF-3F44C18FCE4F}">
   <dimension ref="A1:M90"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2217,71 +2217,71 @@
   <sheetData>
     <row r="1" spans="1:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="99" t="s">
+      <c r="F2" s="103"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="99" t="s">
+      <c r="I2" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="99" t="s">
+      <c r="J2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="99" t="s">
+      <c r="L2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="100" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="103"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="107"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="100"/>
+      <c r="M4" s="100"/>
     </row>
     <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
@@ -4707,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20A379E-E6A5-40FC-9C4F-5853DE135101}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,31 +4717,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="108" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="110" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="C4" s="61"/>
@@ -5042,23 +5042,23 @@
         <v>40</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="107" t="s">
+      <c r="C18" s="109" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="107" t="s">
+      <c r="E18" s="109" t="s">
         <v>128</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="107" t="s">
+      <c r="G18" s="109" t="s">
         <v>132</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="109" t="s">
+      <c r="I18" s="114" t="s">
         <v>137</v>
       </c>
       <c r="J18" s="13"/>
-      <c r="K18" s="111" t="s">
+      <c r="K18" s="116" t="s">
         <v>127</v>
       </c>
       <c r="L18" s="13"/>
@@ -5068,15 +5068,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="107"/>
+      <c r="C19" s="109"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="107"/>
+      <c r="E19" s="109"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="107"/>
+      <c r="G19" s="109"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="110"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="111"/>
+      <c r="K19" s="116"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -5084,91 +5084,91 @@
         <v>119</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="107"/>
+      <c r="C20" s="109"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="107"/>
+      <c r="E20" s="109"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="107"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="110"/>
+      <c r="I20" s="115"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="111"/>
+      <c r="K20" s="116"/>
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="107" t="s">
+      <c r="A21" s="109" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="107"/>
+      <c r="C21" s="109"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="107"/>
+      <c r="E21" s="109"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="107"/>
+      <c r="G21" s="109"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="110"/>
+      <c r="I21" s="115"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="111"/>
+      <c r="K21" s="116"/>
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="107"/>
+      <c r="A22" s="109"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="109"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="110"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
+      <c r="A23" s="109"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="107"/>
+      <c r="G23" s="109"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="110"/>
+      <c r="I23" s="115"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="107"/>
+      <c r="A24" s="109"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="107"/>
+      <c r="G24" s="109"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="110"/>
+      <c r="I24" s="115"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
+      <c r="A25" s="109"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="107"/>
+      <c r="G25" s="109"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="110"/>
+      <c r="I25" s="115"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
+      <c r="A26" s="109"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -5448,7 +5448,7 @@
         <v>119</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="107" t="s">
+      <c r="C38" s="109" t="s">
         <v>131</v>
       </c>
       <c r="D38" s="13"/>
@@ -5460,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="107" t="s">
+      <c r="I38" s="109" t="s">
         <v>138</v>
       </c>
       <c r="J38" s="13"/>
@@ -5468,11 +5468,11 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="107" t="s">
+      <c r="A39" s="109" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="107"/>
+      <c r="C39" s="109"/>
       <c r="D39" s="13"/>
       <c r="E39" s="11" t="s">
         <v>41</v>
@@ -5482,165 +5482,159 @@
         <v>129</v>
       </c>
       <c r="H39" s="13"/>
-      <c r="I39" s="107"/>
+      <c r="I39" s="109"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="107"/>
+      <c r="A40" s="109"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="107"/>
+      <c r="C40" s="109"/>
       <c r="D40" s="13"/>
       <c r="E40" s="62" t="s">
         <v>129</v>
       </c>
       <c r="F40" s="13"/>
-      <c r="G40" s="109" t="s">
+      <c r="G40" s="114" t="s">
         <v>136</v>
       </c>
       <c r="H40" s="13"/>
-      <c r="I40" s="107"/>
+      <c r="I40" s="109"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="107"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="107"/>
+      <c r="C41" s="109"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="108" t="s">
+      <c r="E41" s="113" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="110"/>
+      <c r="G41" s="115"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="107"/>
+      <c r="I41" s="109"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="107"/>
-      <c r="C42" s="107"/>
-      <c r="E42" s="108"/>
-      <c r="G42" s="110"/>
-      <c r="I42" s="107"/>
+      <c r="A42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="E42" s="113"/>
+      <c r="G42" s="115"/>
+      <c r="I42" s="109"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="107"/>
-      <c r="C43" s="107"/>
-      <c r="E43" s="108"/>
-      <c r="G43" s="110"/>
-      <c r="I43" s="107"/>
+      <c r="A43" s="109"/>
+      <c r="C43" s="109"/>
+      <c r="E43" s="113"/>
+      <c r="G43" s="115"/>
+      <c r="I43" s="109"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="107"/>
-      <c r="C44" s="107"/>
-      <c r="E44" s="108"/>
-      <c r="G44" s="110"/>
-      <c r="I44" s="107"/>
+      <c r="A44" s="109"/>
+      <c r="C44" s="109"/>
+      <c r="E44" s="113"/>
+      <c r="G44" s="115"/>
+      <c r="I44" s="109"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="107"/>
-      <c r="E45" s="108"/>
-      <c r="G45" s="110"/>
-      <c r="I45" s="107"/>
+      <c r="A45" s="109"/>
+      <c r="E45" s="113"/>
+      <c r="G45" s="115"/>
+      <c r="I45" s="109"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="107"/>
-      <c r="E46" s="108"/>
-      <c r="G46" s="110"/>
-      <c r="I46" s="107"/>
+      <c r="A46" s="109"/>
+      <c r="E46" s="113"/>
+      <c r="G46" s="115"/>
+      <c r="I46" s="109"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="107"/>
-      <c r="E47" s="108"/>
-      <c r="G47" s="110"/>
-      <c r="I47" s="107"/>
+      <c r="A47" s="109"/>
+      <c r="E47" s="113"/>
+      <c r="G47" s="115"/>
+      <c r="I47" s="109"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="107"/>
-      <c r="E48" s="108"/>
-      <c r="G48" s="110"/>
+      <c r="A48" s="109"/>
+      <c r="E48" s="113"/>
+      <c r="G48" s="115"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107"/>
-      <c r="E49" s="108"/>
-      <c r="G49" s="110"/>
+      <c r="A49" s="109"/>
+      <c r="E49" s="113"/>
+      <c r="G49" s="115"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="107"/>
-      <c r="E50" s="108"/>
-      <c r="G50" s="110"/>
+      <c r="A50" s="109"/>
+      <c r="E50" s="113"/>
+      <c r="G50" s="115"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="107"/>
-      <c r="E51" s="108"/>
-      <c r="G51" s="110"/>
+      <c r="A51" s="109"/>
+      <c r="E51" s="113"/>
+      <c r="G51" s="115"/>
     </row>
     <row r="52" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="107"/>
-      <c r="E52" s="108"/>
-      <c r="G52" s="110"/>
+      <c r="A52" s="109"/>
+      <c r="E52" s="113"/>
+      <c r="G52" s="115"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="107"/>
-      <c r="E53" s="108"/>
-      <c r="G53" s="110"/>
+      <c r="A53" s="109"/>
+      <c r="E53" s="113"/>
+      <c r="G53" s="115"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="107"/>
-      <c r="E54" s="108"/>
-      <c r="G54" s="110"/>
+      <c r="A54" s="109"/>
+      <c r="E54" s="113"/>
+      <c r="G54" s="115"/>
     </row>
     <row r="55" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="107"/>
-      <c r="E55" s="108"/>
-      <c r="G55" s="110"/>
+      <c r="A55" s="109"/>
+      <c r="E55" s="113"/>
+      <c r="G55" s="115"/>
     </row>
     <row r="56" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="107"/>
-      <c r="E56" s="108"/>
-      <c r="G56" s="110"/>
+      <c r="A56" s="109"/>
+      <c r="E56" s="113"/>
+      <c r="G56" s="115"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="107"/>
-      <c r="E57" s="108"/>
-      <c r="G57" s="110"/>
+      <c r="A57" s="109"/>
+      <c r="E57" s="113"/>
+      <c r="G57" s="115"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E58" s="108"/>
-      <c r="G58" s="110"/>
+      <c r="E58" s="113"/>
+      <c r="G58" s="115"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E59" s="108"/>
-      <c r="G59" s="110"/>
+      <c r="E59" s="113"/>
+      <c r="G59" s="115"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E60" s="108"/>
+      <c r="E60" s="113"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E61" s="108"/>
+      <c r="E61" s="113"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E62" s="108"/>
+      <c r="E62" s="113"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E63" s="108"/>
+      <c r="E63" s="113"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E64" s="108"/>
+      <c r="E64" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G25"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A39:A57"/>
     <mergeCell ref="E41:E64"/>
@@ -5649,6 +5643,12 @@
     <mergeCell ref="C38:C44"/>
     <mergeCell ref="I18:I25"/>
     <mergeCell ref="I38:I47"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5658,7 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FC658-9ACC-4FE3-BEB4-06B30703A0EA}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C5" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
@@ -5670,10 +5670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="117"/>
     </row>
     <row r="2" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="43">
@@ -5694,10 +5694,10 @@
       <c r="B3" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="O3" s="120">
+      <c r="O3" s="119">
         <v>1</v>
       </c>
-      <c r="P3" s="117" t="s">
+      <c r="P3" s="118" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5708,8 +5708,8 @@
       <c r="B4" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="120"/>
-      <c r="P4" s="117"/>
+      <c r="O4" s="119"/>
+      <c r="P4" s="118"/>
     </row>
     <row r="5" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="43">
@@ -5718,10 +5718,10 @@
       <c r="B5" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="O5" s="121">
+      <c r="O5" s="122">
         <v>2</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="120" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5732,8 +5732,8 @@
       <c r="B6" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="122"/>
-      <c r="P6" s="119"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="121"/>
     </row>
     <row r="7" spans="1:16" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="43">
@@ -5742,7 +5742,7 @@
       <c r="B7" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="O7" s="123">
+      <c r="O7" s="73">
         <v>3</v>
       </c>
       <c r="P7" s="2"/>
@@ -5752,7 +5752,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="60"/>
-      <c r="O8" s="123">
+      <c r="O8" s="73">
         <v>4</v>
       </c>
       <c r="P8" s="2"/>
@@ -5762,7 +5762,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="60"/>
-      <c r="O9" s="123">
+      <c r="O9" s="73">
         <v>5</v>
       </c>
       <c r="P9" s="2"/>

--- a/InfoProyecto/DataExcel/PropuestaModelado.xlsx
+++ b/InfoProyecto/DataExcel/PropuestaModelado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Trabajo\InfoProyecto\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F836CD-8A87-45C3-8356-5AEB01A98DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D215CE-4CF5-441C-83BC-EE5E82A5DD86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REQUERIMIENTOS" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1101,6 +1101,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,63 +1179,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1203,12 +1203,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1217,18 +1229,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1848,156 +1848,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="93"/>
     </row>
     <row r="2" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="94"/>
     </row>
     <row r="3" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="77" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="99"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="78"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="85">
+      <c r="A5" s="83">
         <v>2</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="85" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82">
+      <c r="A7" s="75">
         <v>3</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="87" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="87"/>
     </row>
     <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="87"/>
     </row>
     <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="90" t="s">
+      <c r="A11" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="89"/>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="91"/>
     </row>
     <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82">
+      <c r="A13" s="75">
         <v>1</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="98" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="98"/>
     </row>
     <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="98"/>
     </row>
     <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82">
+      <c r="A16" s="75">
         <v>2</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="97" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="78"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="97"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="97"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82">
+      <c r="A19" s="75">
         <v>3</v>
       </c>
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="76" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
     </row>
     <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="76"/>
     </row>
     <row r="23" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82">
+      <c r="A23" s="75">
         <v>4</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="76" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
     </row>
     <row r="25" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="81"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="76"/>
     </row>
     <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="82">
+      <c r="A26" s="75">
         <v>5</v>
       </c>
-      <c r="B26" s="81" t="s">
+      <c r="B26" s="76" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="82"/>
-      <c r="B27" s="81"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="76"/>
     </row>
     <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82"/>
-      <c r="B28" s="81"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
     </row>
     <row r="29" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="81"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="76"/>
     </row>
     <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A30" s="14"/>
@@ -2007,14 +2007,14 @@
       <c r="B31" s="15"/>
     </row>
     <row r="33" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="76" t="s">
+      <c r="A33" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="95"/>
     </row>
     <row r="34" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
     </row>
     <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
@@ -2049,94 +2049,94 @@
       </c>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82" t="s">
+      <c r="A39" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="76" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="81"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="81"/>
+      <c r="A41" s="75"/>
+      <c r="B41" s="76"/>
     </row>
     <row r="43" spans="1:2" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="80"/>
+      <c r="B43" s="99"/>
     </row>
     <row r="44" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95" t="s">
+      <c r="A44" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="95"/>
+      <c r="B44" s="92"/>
     </row>
     <row r="45" spans="1:2" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="95" t="s">
+      <c r="A45" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="95"/>
+      <c r="B45" s="92"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B46" s="94"/>
+      <c r="B46" s="74"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="94"/>
+      <c r="B47" s="74"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="B48" s="94"/>
+      <c r="B48" s="74"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="B49" s="94"/>
+      <c r="B49" s="74"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="94" t="s">
+      <c r="A50" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="94"/>
+      <c r="B50" s="74"/>
     </row>
     <row r="51" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="83"/>
+      <c r="B51" s="81"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="84"/>
-      <c r="B52" s="84"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="84"/>
-      <c r="B53" s="84"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="84"/>
-      <c r="B54" s="84"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="84"/>
-      <c r="B55" s="84"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="84"/>
-      <c r="B56" s="84"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
@@ -2155,12 +2155,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A51:B56"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2177,14 +2179,12 @@
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2195,7 +2195,7 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I2" sqref="I2:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4707,8 +4707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20A379E-E6A5-40FC-9C4F-5853DE135101}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4717,31 +4717,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="113" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C2" s="110" t="s">
+      <c r="C2" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="112"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="116"/>
     </row>
     <row r="3" spans="1:12" ht="21" x14ac:dyDescent="0.3">
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="112"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="116"/>
     </row>
     <row r="4" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="C4" s="61"/>
@@ -5042,23 +5042,23 @@
         <v>40</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="108" t="s">
         <v>120</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>128</v>
       </c>
       <c r="F18" s="13"/>
-      <c r="G18" s="109" t="s">
+      <c r="G18" s="108" t="s">
         <v>132</v>
       </c>
       <c r="H18" s="13"/>
-      <c r="I18" s="114" t="s">
+      <c r="I18" s="110" t="s">
         <v>137</v>
       </c>
       <c r="J18" s="13"/>
-      <c r="K18" s="116" t="s">
+      <c r="K18" s="112" t="s">
         <v>127</v>
       </c>
       <c r="L18" s="13"/>
@@ -5068,15 +5068,15 @@
         <v>41</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="109"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="13"/>
-      <c r="E19" s="109"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="109"/>
+      <c r="G19" s="108"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="115"/>
+      <c r="I19" s="111"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="116"/>
+      <c r="K19" s="112"/>
       <c r="L19" s="13"/>
     </row>
     <row r="20" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -5084,91 +5084,91 @@
         <v>119</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="109"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="13"/>
-      <c r="E20" s="109"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="109"/>
+      <c r="G20" s="108"/>
       <c r="H20" s="13"/>
-      <c r="I20" s="115"/>
+      <c r="I20" s="111"/>
       <c r="J20" s="13"/>
-      <c r="K20" s="116"/>
+      <c r="K20" s="112"/>
       <c r="L20" s="13"/>
     </row>
     <row r="21" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="108" t="s">
         <v>130</v>
       </c>
       <c r="B21" s="13"/>
-      <c r="C21" s="109"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="13"/>
-      <c r="E21" s="109"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="109"/>
+      <c r="G21" s="108"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="115"/>
+      <c r="I21" s="111"/>
       <c r="J21" s="13"/>
-      <c r="K21" s="116"/>
+      <c r="K21" s="112"/>
       <c r="L21" s="13"/>
     </row>
     <row r="22" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A22" s="109"/>
+      <c r="A22" s="108"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="109"/>
+      <c r="G22" s="108"/>
       <c r="H22" s="13"/>
-      <c r="I22" s="115"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
     </row>
     <row r="23" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="109"/>
+      <c r="A23" s="108"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
-      <c r="G23" s="109"/>
+      <c r="G23" s="108"/>
       <c r="H23" s="13"/>
-      <c r="I23" s="115"/>
+      <c r="I23" s="111"/>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
       <c r="L23" s="13"/>
     </row>
     <row r="24" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A24" s="109"/>
+      <c r="A24" s="108"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="109"/>
+      <c r="G24" s="108"/>
       <c r="H24" s="13"/>
-      <c r="I24" s="115"/>
+      <c r="I24" s="111"/>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
     </row>
     <row r="25" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="109"/>
+      <c r="A25" s="108"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="109"/>
+      <c r="G25" s="108"/>
       <c r="H25" s="13"/>
-      <c r="I25" s="115"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
     </row>
     <row r="26" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="109"/>
+      <c r="A26" s="108"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -5448,7 +5448,7 @@
         <v>119</v>
       </c>
       <c r="B38" s="13"/>
-      <c r="C38" s="109" t="s">
+      <c r="C38" s="108" t="s">
         <v>131</v>
       </c>
       <c r="D38" s="13"/>
@@ -5460,7 +5460,7 @@
         <v>41</v>
       </c>
       <c r="H38" s="13"/>
-      <c r="I38" s="109" t="s">
+      <c r="I38" s="108" t="s">
         <v>138</v>
       </c>
       <c r="J38" s="13"/>
@@ -5468,11 +5468,11 @@
       <c r="L38" s="13"/>
     </row>
     <row r="39" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="108" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="13"/>
-      <c r="C39" s="109"/>
+      <c r="C39" s="108"/>
       <c r="D39" s="13"/>
       <c r="E39" s="11" t="s">
         <v>41</v>
@@ -5482,159 +5482,165 @@
         <v>129</v>
       </c>
       <c r="H39" s="13"/>
-      <c r="I39" s="109"/>
+      <c r="I39" s="108"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
       <c r="L39" s="13"/>
     </row>
     <row r="40" spans="1:12" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="109"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="13"/>
-      <c r="C40" s="109"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="13"/>
       <c r="E40" s="62" t="s">
         <v>129</v>
       </c>
       <c r="F40" s="13"/>
-      <c r="G40" s="114" t="s">
+      <c r="G40" s="110" t="s">
         <v>136</v>
       </c>
       <c r="H40" s="13"/>
-      <c r="I40" s="109"/>
+      <c r="I40" s="108"/>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
     </row>
     <row r="41" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="109"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="13"/>
-      <c r="C41" s="109"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="13"/>
-      <c r="E41" s="113" t="s">
+      <c r="E41" s="109" t="s">
         <v>133</v>
       </c>
       <c r="F41" s="13"/>
-      <c r="G41" s="115"/>
+      <c r="G41" s="111"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="109"/>
+      <c r="I41" s="108"/>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="E42" s="113"/>
-      <c r="G42" s="115"/>
-      <c r="I42" s="109"/>
+      <c r="A42" s="108"/>
+      <c r="C42" s="108"/>
+      <c r="E42" s="109"/>
+      <c r="G42" s="111"/>
+      <c r="I42" s="108"/>
     </row>
     <row r="43" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="109"/>
-      <c r="C43" s="109"/>
-      <c r="E43" s="113"/>
-      <c r="G43" s="115"/>
-      <c r="I43" s="109"/>
+      <c r="A43" s="108"/>
+      <c r="C43" s="108"/>
+      <c r="E43" s="109"/>
+      <c r="G43" s="111"/>
+      <c r="I43" s="108"/>
     </row>
     <row r="44" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="109"/>
-      <c r="C44" s="109"/>
-      <c r="E44" s="113"/>
-      <c r="G44" s="115"/>
-      <c r="I44" s="109"/>
+      <c r="A44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="E44" s="109"/>
+      <c r="G44" s="111"/>
+      <c r="I44" s="108"/>
     </row>
     <row r="45" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="109"/>
-      <c r="E45" s="113"/>
-      <c r="G45" s="115"/>
-      <c r="I45" s="109"/>
+      <c r="A45" s="108"/>
+      <c r="E45" s="109"/>
+      <c r="G45" s="111"/>
+      <c r="I45" s="108"/>
     </row>
     <row r="46" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="109"/>
-      <c r="E46" s="113"/>
-      <c r="G46" s="115"/>
-      <c r="I46" s="109"/>
+      <c r="A46" s="108"/>
+      <c r="E46" s="109"/>
+      <c r="G46" s="111"/>
+      <c r="I46" s="108"/>
     </row>
     <row r="47" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="109"/>
-      <c r="E47" s="113"/>
-      <c r="G47" s="115"/>
-      <c r="I47" s="109"/>
+      <c r="A47" s="108"/>
+      <c r="E47" s="109"/>
+      <c r="G47" s="111"/>
+      <c r="I47" s="108"/>
     </row>
     <row r="48" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="109"/>
-      <c r="E48" s="113"/>
-      <c r="G48" s="115"/>
+      <c r="A48" s="108"/>
+      <c r="E48" s="109"/>
+      <c r="G48" s="111"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="109"/>
-      <c r="E49" s="113"/>
-      <c r="G49" s="115"/>
+      <c r="A49" s="108"/>
+      <c r="E49" s="109"/>
+      <c r="G49" s="111"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
-      <c r="E50" s="113"/>
-      <c r="G50" s="115"/>
+      <c r="A50" s="108"/>
+      <c r="E50" s="109"/>
+      <c r="G50" s="111"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
-      <c r="E51" s="113"/>
-      <c r="G51" s="115"/>
+      <c r="A51" s="108"/>
+      <c r="E51" s="109"/>
+      <c r="G51" s="111"/>
     </row>
     <row r="52" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="109"/>
-      <c r="E52" s="113"/>
-      <c r="G52" s="115"/>
+      <c r="A52" s="108"/>
+      <c r="E52" s="109"/>
+      <c r="G52" s="111"/>
     </row>
     <row r="53" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="109"/>
-      <c r="E53" s="113"/>
-      <c r="G53" s="115"/>
+      <c r="A53" s="108"/>
+      <c r="E53" s="109"/>
+      <c r="G53" s="111"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
-      <c r="E54" s="113"/>
-      <c r="G54" s="115"/>
+      <c r="A54" s="108"/>
+      <c r="E54" s="109"/>
+      <c r="G54" s="111"/>
     </row>
     <row r="55" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="109"/>
-      <c r="E55" s="113"/>
-      <c r="G55" s="115"/>
+      <c r="A55" s="108"/>
+      <c r="E55" s="109"/>
+      <c r="G55" s="111"/>
     </row>
     <row r="56" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="109"/>
-      <c r="E56" s="113"/>
-      <c r="G56" s="115"/>
+      <c r="A56" s="108"/>
+      <c r="E56" s="109"/>
+      <c r="G56" s="111"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="109"/>
-      <c r="E57" s="113"/>
-      <c r="G57" s="115"/>
+      <c r="A57" s="108"/>
+      <c r="E57" s="109"/>
+      <c r="G57" s="111"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E58" s="113"/>
-      <c r="G58" s="115"/>
+      <c r="E58" s="109"/>
+      <c r="G58" s="111"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E59" s="113"/>
-      <c r="G59" s="115"/>
+      <c r="E59" s="109"/>
+      <c r="G59" s="111"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E60" s="113"/>
+      <c r="E60" s="109"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E61" s="113"/>
+      <c r="E61" s="109"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E62" s="113"/>
+      <c r="E62" s="109"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E63" s="113"/>
+      <c r="E63" s="109"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E64" s="113"/>
+      <c r="E64" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="G18:G25"/>
     <mergeCell ref="A21:A26"/>
     <mergeCell ref="A39:A57"/>
     <mergeCell ref="E41:E64"/>
@@ -5643,12 +5649,6 @@
     <mergeCell ref="C38:C44"/>
     <mergeCell ref="I18:I25"/>
     <mergeCell ref="I38:I47"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="G18:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5658,8 +5658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46FC658-9ACC-4FE3-BEB4-06B30703A0EA}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
